--- a/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
+++ b/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
@@ -301,8 +301,7 @@
     <col min="2" max="2" width="16.9453125" customWidth="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true"/>
     <col min="4" max="4" width="17.578125" customWidth="true"/>
-    <col min="5" max="5" width="16.29296875" customWidth="true"/>
-    <col min="6" max="6" width="21.91015625" customWidth="true"/>
+    <col min="6" max="6" width="10.48046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,11 +348,6 @@
           <t>Первичный ключ</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Обязательность</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Описание</t>
@@ -379,10 +373,7 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>PK description</t>
         </is>
@@ -407,10 +398,7 @@
       <c r="D7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>create description</t>
         </is>
@@ -435,10 +423,7 @@
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>string to int description</t>
         </is>
@@ -470,10 +455,7 @@
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="E10" s="1" t="inlineStr">
         <is>
           <t>not_edited description</t>
         </is>
@@ -498,10 +480,7 @@
       <c r="D11" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>deleted description</t>
         </is>
@@ -511,7 +490,6 @@
   <mergeCells>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>

--- a/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
+++ b/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Пасспорт справочника" r:id="rId3" sheetId="1"/>
+    <sheet name="Паспорт справочника" r:id="rId3" sheetId="1"/>
     <sheet name="Структура справочника" r:id="rId4" sheetId="2"/>
     <sheet name="Данные справочника" r:id="rId5" sheetId="3"/>
   </sheets>
@@ -301,7 +301,8 @@
     <col min="2" max="2" width="16.9453125" customWidth="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true"/>
     <col min="4" max="4" width="17.578125" customWidth="true"/>
-    <col min="6" max="6" width="10.48046875" customWidth="true"/>
+    <col min="5" max="5" width="22.88671875" customWidth="true"/>
+    <col min="6" max="6" width="21.91015625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -348,6 +349,11 @@
           <t>Первичный ключ</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Переводимый атрибут</t>
+        </is>
+      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Описание</t>
@@ -375,6 +381,11 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>PK description</t>
         </is>
       </c>
@@ -400,6 +411,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>create description</t>
         </is>
       </c>
@@ -425,6 +441,11 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
           <t>string to int description</t>
         </is>
       </c>
@@ -457,6 +478,11 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
           <t>not_edited description</t>
         </is>
       </c>
@@ -481,6 +507,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>deleted description</t>
         </is>
@@ -491,6 +522,7 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
+++ b/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
@@ -379,10 +379,8 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -409,10 +407,8 @@
       <c r="D7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
@@ -439,10 +435,8 @@
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -476,10 +470,8 @@
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
@@ -506,10 +498,8 @@
       <c r="D11" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="E11" s="8" t="b">
+        <v>0</v>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>

--- a/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
+++ b/rdm-impl/src/test/resources/file/export/compare_test/compared_file.xlsx
@@ -301,7 +301,6 @@
     <col min="2" max="2" width="16.9453125" customWidth="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true"/>
     <col min="4" max="4" width="17.578125" customWidth="true"/>
-    <col min="5" max="5" width="22.88671875" customWidth="true"/>
     <col min="6" max="6" width="21.91015625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -349,11 +348,6 @@
           <t>Первичный ключ</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Переводимый атрибут</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Описание</t>
@@ -379,9 +373,6 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>PK description</t>
@@ -407,9 +398,6 @@
       <c r="D7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>create description</t>
@@ -435,9 +423,6 @@
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>string to int description</t>
@@ -470,9 +455,6 @@
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
           <t>not_edited description</t>
@@ -496,9 +478,6 @@
         </is>
       </c>
       <c r="D11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="inlineStr">
@@ -511,7 +490,6 @@
   <mergeCells>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
